--- a/breakeven-analysis TEMPLATE (1).xlsx
+++ b/breakeven-analysis TEMPLATE (1).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73b383de36d87c6a/AP/3de jaar/AP valley/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\OneDrive\AP\3de jaar\AP valley\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="6B72930379CA4EE5EFB4DCFC4756D5673A1398BC" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{F4E0D2E0-AD27-4BFD-9DA9-32E22665BD33}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Breakeven Analysis Data" sheetId="2" r:id="rId1"/>
@@ -53,11 +52,8 @@
     <definedName name="Variable_costs_unit">'Breakeven Analysis Data'!$F$10:$F$17</definedName>
     <definedName name="Variable_Unit_Cost">'Breakeven Analysis Data'!$F$18</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="4"/>
     </ext>
@@ -209,7 +205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
@@ -558,10 +554,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Date" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Fixed" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Date" xfId="1"/>
+    <cellStyle name="Fixed" xfId="2"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Text" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Text" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -645,7 +641,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
@@ -729,7 +725,7 @@
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000000-EFFC-4377-9FC7-EB193671AA2A}"/>
               </c:ext>
@@ -749,7 +745,7 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-EFFC-4377-9FC7-EB193671AA2A}"/>
               </c:ext>
@@ -789,8 +785,10 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -814,15 +812,15 @@
                 <c:formatCode>#,##0.00_);\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>15.34</c:v>
+                  <c:v>15.49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.649999999999999</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-EFFC-4377-9FC7-EB193671AA2A}"/>
             </c:ext>
@@ -923,7 +921,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
@@ -1007,7 +1005,7 @@
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000000-BB8F-4065-8871-D26A136A5057}"/>
               </c:ext>
@@ -1027,7 +1025,7 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-BB8F-4065-8871-D26A136A5057}"/>
               </c:ext>
@@ -1047,7 +1045,7 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-BB8F-4065-8871-D26A136A5057}"/>
               </c:ext>
@@ -1067,7 +1065,7 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-BB8F-4065-8871-D26A136A5057}"/>
               </c:ext>
@@ -1087,7 +1085,7 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000008-BB8F-4065-8871-D26A136A5057}"/>
               </c:ext>
@@ -1127,8 +1125,10 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1173,7 +1173,7 @@
                   <c:v>14.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1182,7 +1182,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1193,7 +1193,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-BB8F-4065-8871-D26A136A5057}"/>
             </c:ext>
@@ -1294,7 +1294,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
@@ -1308,6 +1308,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1368,28 +1369,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1401,37 +1402,37 @@
                 <c:formatCode>#,##0.00_);[Red]\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-29.94</c:v>
+                  <c:v>-8100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.309999999999988</c:v>
+                  <c:v>-7125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>116.55999999999997</c:v>
+                  <c:v>-6150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>189.80999999999995</c:v>
+                  <c:v>-5175</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>263.05999999999995</c:v>
+                  <c:v>-4200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>336.31</c:v>
+                  <c:v>-3225</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>409.55999999999995</c:v>
+                  <c:v>-2250</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>482.80999999999983</c:v>
+                  <c:v>-1275</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>556.05999999999983</c:v>
+                  <c:v>-300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BDAF-45B0-AF2A-4AFDDF4D1728}"/>
             </c:ext>
@@ -1446,11 +1447,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="574720920"/>
-        <c:axId val="574716328"/>
+        <c:axId val="429066512"/>
+        <c:axId val="429063768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="574720920"/>
+        <c:axId val="429066512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1482,6 +1483,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1548,7 +1550,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574716328"/>
+        <c:crossAx val="429063768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1556,7 +1558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="574716328"/>
+        <c:axId val="429063768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1602,6 +1604,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1662,13 +1665,13 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574720920"/>
+        <c:crossAx val="429066512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -1712,7 +1715,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
@@ -1824,43 +1827,43 @@
                 <c:formatCode>#,##0.00_);[Red]\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>29.94</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.94</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.94</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.94</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.94</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.94</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.94</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.94</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.94</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.94</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.94</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3374-42C2-A468-14FB619C71D9}"/>
             </c:ext>
@@ -1910,43 +1913,43 @@
                 <c:formatCode>#,##0.00_);[Red]\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>29.94</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>106.64</c:v>
+                  <c:v>8874.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>183.34</c:v>
+                  <c:v>9649</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>260.04000000000002</c:v>
+                  <c:v>10423.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>336.74</c:v>
+                  <c:v>11198</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>413.44</c:v>
+                  <c:v>11972.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>490.14</c:v>
+                  <c:v>12747</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>566.84</c:v>
+                  <c:v>13521.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>643.54000000000008</c:v>
+                  <c:v>14296</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>720.24</c:v>
+                  <c:v>15070.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>796.94</c:v>
+                  <c:v>15845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3374-42C2-A468-14FB619C71D9}"/>
             </c:ext>
@@ -1999,40 +2002,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>149.94999999999999</c:v>
+                  <c:v>1749.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>299.89999999999998</c:v>
+                  <c:v>3499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>449.84999999999997</c:v>
+                  <c:v>5248.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>599.79999999999995</c:v>
+                  <c:v>6998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>749.75</c:v>
+                  <c:v>8747.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>899.69999999999993</c:v>
+                  <c:v>10497</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1049.6499999999999</c:v>
+                  <c:v>12246.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1199.5999999999999</c:v>
+                  <c:v>13996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1349.55</c:v>
+                  <c:v>15745.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1499.5</c:v>
+                  <c:v>17495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3374-42C2-A468-14FB619C71D9}"/>
             </c:ext>
@@ -2080,43 +2083,43 @@
                 <c:formatCode>#,##0.00_);[Red]\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-29.94</c:v>
+                  <c:v>-8100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.309999999999988</c:v>
+                  <c:v>-7125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>116.55999999999997</c:v>
+                  <c:v>-6150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>189.80999999999995</c:v>
+                  <c:v>-5175</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>263.05999999999995</c:v>
+                  <c:v>-4200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>336.31</c:v>
+                  <c:v>-3225</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>409.55999999999995</c:v>
+                  <c:v>-2250</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>482.80999999999983</c:v>
+                  <c:v>-1275</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>556.05999999999983</c:v>
+                  <c:v>-300</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>629.30999999999995</c:v>
+                  <c:v>675</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>702.56</c:v>
+                  <c:v>1650</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3374-42C2-A468-14FB619C71D9}"/>
             </c:ext>
@@ -2132,11 +2135,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121281200"/>
-        <c:axId val="121284832"/>
+        <c:axId val="429067688"/>
+        <c:axId val="429066904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121281200"/>
+        <c:axId val="429067688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2210,7 +2213,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121284832"/>
+        <c:crossAx val="429066904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2220,7 +2223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121284832"/>
+        <c:axId val="429066904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2304,7 +2307,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121281200"/>
+        <c:crossAx val="429067688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2954,7 +2957,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="39"/>
   </sheetPr>
@@ -2987,7 +2990,7 @@
         <xdr:cNvPr id="1037" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3025,7 +3028,7 @@
         <xdr:cNvPr id="1038" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3063,7 +3066,7 @@
         <xdr:cNvPr id="3" name="Grafiek 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B60099A7-5CCD-41E4-9C73-7110CE783FD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B60099A7-5CCD-41E4-9C73-7110CE783FD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3094,7 +3097,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3438,32 +3441,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="26"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B34" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B16" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="20" customWidth="1"/>
-    <col min="9" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="20" customWidth="1"/>
+    <col min="9" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="4"/>
       <c r="B1" s="25" t="s">
         <v>6</v>
@@ -3477,7 +3480,7 @@
       <c r="I1" s="25"/>
       <c r="J1" s="24"/>
     </row>
-    <row r="2" spans="1:10" ht="28.2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" s="29" t="s">
         <v>5</v>
@@ -3489,7 +3492,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="42" t="s">
         <v>30</v>
@@ -3501,7 +3504,7 @@
       <c r="G3" s="17"/>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="43" t="s">
         <v>9</v>
@@ -3513,7 +3516,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
@@ -3521,11 +3524,11 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="31">
-        <v>29.99</v>
+        <v>34.99</v>
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12" t="s">
@@ -3533,21 +3536,21 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="45">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="36"/>
       <c r="C7" s="23" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="33">
         <f>IF(OR(Sales_price_unit&lt;&gt;0,Sales_volume_units&lt;&gt;0),Sales_price_unit*Sales_volume_units,0)</f>
-        <v>1499.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -3556,7 +3559,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="44" t="s">
         <v>13</v>
@@ -3567,7 +3570,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="11"/>
       <c r="C10" s="36" t="s">
@@ -3579,7 +3582,7 @@
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="11"/>
       <c r="C11" s="54" t="s">
@@ -3591,7 +3594,7 @@
       </c>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="11"/>
       <c r="C12" s="54" t="s">
@@ -3599,11 +3602,11 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="11"/>
       <c r="C13" s="54" t="s">
@@ -3615,7 +3618,7 @@
       </c>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="11"/>
       <c r="C14" s="54" t="s">
@@ -3627,7 +3630,7 @@
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11"/>
       <c r="C15" s="54" t="s">
@@ -3635,11 +3638,11 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="32">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11"/>
       <c r="C16" s="54" t="s">
@@ -3651,7 +3654,7 @@
       </c>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
@@ -3663,7 +3666,7 @@
       </c>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="11"/>
       <c r="C18" s="35" t="s">
@@ -3672,11 +3675,11 @@
       <c r="E18" s="3"/>
       <c r="F18" s="34">
         <f>IF(SUM(Variable_costs_unit),SUM(Variable_costs_unit),0)</f>
-        <v>15.34</v>
+        <v>15.49</v>
       </c>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="11"/>
       <c r="C19" s="35" t="s">
@@ -3686,10 +3689,10 @@
       <c r="F19" s="19"/>
       <c r="G19" s="46">
         <f>IF(Variable_Unit_Cost,Variable_Unit_Cost*Sales_volume_units,0)</f>
-        <v>767</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7745</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="11"/>
       <c r="C20" s="35"/>
@@ -3698,7 +3701,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="11"/>
       <c r="C21" s="35" t="s">
@@ -3707,12 +3710,12 @@
       <c r="E21" s="3"/>
       <c r="F21" s="33">
         <f>IF(Sales_price_unit&gt;0,MAX(0,Sales_price_unit-Variable_Unit_Cost),0)</f>
-        <v>14.649999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="11"/>
       <c r="C22" s="35" t="s">
@@ -3722,11 +3725,11 @@
       <c r="F22" s="19"/>
       <c r="G22" s="33">
         <f>IF(OR(Total_Sales&lt;&gt;0,Total_variable&lt;&gt;0),Total_Sales-Total_variable,0)</f>
-        <v>732.5</v>
+        <v>9750</v>
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -3736,7 +3739,7 @@
       <c r="G23" s="19"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="44" t="s">
         <v>27</v>
@@ -3748,7 +3751,7 @@
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="11"/>
       <c r="C25" s="36" t="s">
@@ -3761,7 +3764,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="11"/>
       <c r="C26" s="36" t="s">
@@ -3774,7 +3777,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="11"/>
       <c r="C27" s="36" t="s">
@@ -3782,12 +3785,12 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="32">
-        <v>29.94</v>
+        <v>650</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="11"/>
       <c r="C28" s="36" t="s">
@@ -3795,12 +3798,12 @@
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="32">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="11"/>
       <c r="C29" s="36" t="s">
@@ -3808,12 +3811,12 @@
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="32">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="11"/>
       <c r="C30" s="54" t="s">
@@ -3821,12 +3824,12 @@
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="32">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11" t="s">
@@ -3834,12 +3837,12 @@
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="32">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="11"/>
       <c r="C32" s="54" t="s">
@@ -3847,12 +3850,12 @@
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="47">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="11"/>
       <c r="C33" s="54" t="s">
@@ -3865,7 +3868,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11" t="s">
@@ -3878,7 +3881,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="11"/>
       <c r="C35" s="35" t="s">
@@ -3888,18 +3891,18 @@
       <c r="F35" s="18"/>
       <c r="G35" s="48">
         <f>IF(SUM(Fixed_costs)&lt;&gt;0,SUM(Fixed_costs),0)</f>
-        <v>29.94</v>
+        <v>8100</v>
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
       <c r="F36" s="18"/>
       <c r="G36" s="20"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="11"/>
       <c r="C37" s="35" t="s">
@@ -3908,21 +3911,21 @@
       <c r="E37" s="3"/>
       <c r="G37" s="49">
         <f>IF(OR(Gross_margin&lt;&gt;0,Total_fixed&lt;&gt;0),Gross_margin-Total_fixed,0)</f>
-        <v>702.56</v>
+        <v>1650</v>
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
       <c r="G38" s="20"/>
     </row>
-    <row r="39" spans="1:14" ht="34.200000000000003" x14ac:dyDescent="0.8">
+    <row r="39" spans="1:14" ht="33.75" x14ac:dyDescent="0.65">
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
       <c r="F39" s="25"/>
     </row>
-    <row r="40" spans="1:14" ht="34.200000000000003" x14ac:dyDescent="0.8">
+    <row r="40" spans="1:14" ht="33.75" x14ac:dyDescent="0.65">
       <c r="B40" s="25" t="s">
         <v>17</v>
       </c>
@@ -3932,7 +3935,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B41" s="41" t="s">
         <v>16</v>
       </c>
@@ -3941,14 +3944,14 @@
       <c r="E41" s="27"/>
       <c r="F41" s="40">
         <f>IF(AND(Unit_contrib_margin&gt;0,Total_fixed&gt;0),Total_fixed/Unit_contrib_margin,"")</f>
-        <v>2.043686006825939</v>
+        <v>415.38461538461536</v>
       </c>
       <c r="G41" s="26"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
       <c r="J41" s="28"/>
     </row>
-    <row r="42" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B42" s="41" t="s">
         <v>23</v>
       </c>
@@ -3961,7 +3964,7 @@
       <c r="I42" s="27"/>
       <c r="J42" s="28"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B43" s="36" t="s">
         <v>26</v>
       </c>
@@ -3972,146 +3975,146 @@
       </c>
       <c r="E43" s="37">
         <f>IF(Sales_volume_units,Sales_volume_units*0.1,0)</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F43" s="37">
         <f>IF(Sales_volume_units,Sales_volume_units*0.2,0)</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G43" s="37">
         <f>IF(Sales_volume_units,Sales_volume_units*0.3,0)</f>
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="H43" s="37">
         <f>IF(Sales_volume_units,Sales_volume_units*0.4,0)</f>
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="I43" s="37">
         <f>IF(Sales_volume_units,Sales_volume_units*0.5,0)</f>
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="J43" s="37">
         <f>IF(Sales_volume_units,Sales_volume_units*0.6,0)</f>
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="K43" s="37">
         <f>IF(Sales_volume_units,Sales_volume_units*0.7,0)</f>
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="L43" s="37">
         <f>IF(Sales_volume_units,Sales_volume_units*0.8,0)</f>
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="M43" s="37">
         <f>IF(Sales_volume_units,Sales_volume_units*0.9,0)</f>
-        <v>45</v>
+        <v>450</v>
       </c>
       <c r="N43" s="37">
         <f>Sales_volume_units</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B44" s="36" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="36"/>
       <c r="D44" s="38">
         <f t="shared" ref="D44:N44" si="0">Sales_price_unit</f>
-        <v>29.99</v>
+        <v>34.99</v>
       </c>
       <c r="E44" s="38">
         <f t="shared" si="0"/>
-        <v>29.99</v>
+        <v>34.99</v>
       </c>
       <c r="F44" s="38">
         <f t="shared" si="0"/>
-        <v>29.99</v>
+        <v>34.99</v>
       </c>
       <c r="G44" s="38">
         <f t="shared" si="0"/>
-        <v>29.99</v>
+        <v>34.99</v>
       </c>
       <c r="H44" s="38">
         <f t="shared" si="0"/>
-        <v>29.99</v>
+        <v>34.99</v>
       </c>
       <c r="I44" s="38">
         <f t="shared" si="0"/>
-        <v>29.99</v>
+        <v>34.99</v>
       </c>
       <c r="J44" s="38">
         <f t="shared" si="0"/>
-        <v>29.99</v>
+        <v>34.99</v>
       </c>
       <c r="K44" s="38">
         <f t="shared" si="0"/>
-        <v>29.99</v>
+        <v>34.99</v>
       </c>
       <c r="L44" s="38">
         <f t="shared" si="0"/>
-        <v>29.99</v>
+        <v>34.99</v>
       </c>
       <c r="M44" s="38">
         <f t="shared" si="0"/>
-        <v>29.99</v>
+        <v>34.99</v>
       </c>
       <c r="N44" s="38">
         <f t="shared" si="0"/>
-        <v>29.99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B45" s="36" t="s">
         <v>29</v>
       </c>
       <c r="C45" s="36"/>
       <c r="D45" s="38">
         <f t="shared" ref="D45:N45" si="1">Total_fixed</f>
-        <v>29.94</v>
+        <v>8100</v>
       </c>
       <c r="E45" s="38">
         <f t="shared" si="1"/>
-        <v>29.94</v>
+        <v>8100</v>
       </c>
       <c r="F45" s="38">
         <f t="shared" si="1"/>
-        <v>29.94</v>
+        <v>8100</v>
       </c>
       <c r="G45" s="38">
         <f t="shared" si="1"/>
-        <v>29.94</v>
+        <v>8100</v>
       </c>
       <c r="H45" s="38">
         <f t="shared" si="1"/>
-        <v>29.94</v>
+        <v>8100</v>
       </c>
       <c r="I45" s="38">
         <f t="shared" si="1"/>
-        <v>29.94</v>
+        <v>8100</v>
       </c>
       <c r="J45" s="38">
         <f t="shared" si="1"/>
-        <v>29.94</v>
+        <v>8100</v>
       </c>
       <c r="K45" s="38">
         <f t="shared" si="1"/>
-        <v>29.94</v>
+        <v>8100</v>
       </c>
       <c r="L45" s="38">
         <f t="shared" si="1"/>
-        <v>29.94</v>
+        <v>8100</v>
       </c>
       <c r="M45" s="38">
         <f t="shared" si="1"/>
-        <v>29.94</v>
+        <v>8100</v>
       </c>
       <c r="N45" s="38">
         <f t="shared" si="1"/>
-        <v>29.94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B46" s="39" t="s">
         <v>15</v>
       </c>
@@ -4122,96 +4125,96 @@
       </c>
       <c r="E46" s="38">
         <f t="shared" si="2"/>
-        <v>76.7</v>
+        <v>774.5</v>
       </c>
       <c r="F46" s="38">
         <f t="shared" si="2"/>
-        <v>153.4</v>
+        <v>1549</v>
       </c>
       <c r="G46" s="38">
         <f t="shared" si="2"/>
-        <v>230.1</v>
+        <v>2323.5</v>
       </c>
       <c r="H46" s="38">
         <f t="shared" si="2"/>
-        <v>306.8</v>
+        <v>3098</v>
       </c>
       <c r="I46" s="38">
         <f t="shared" si="2"/>
-        <v>383.5</v>
+        <v>3872.5</v>
       </c>
       <c r="J46" s="38">
         <f t="shared" si="2"/>
-        <v>460.2</v>
+        <v>4647</v>
       </c>
       <c r="K46" s="38">
         <f t="shared" si="2"/>
-        <v>536.9</v>
+        <v>5421.5</v>
       </c>
       <c r="L46" s="38">
         <f t="shared" si="2"/>
-        <v>613.6</v>
+        <v>6196</v>
       </c>
       <c r="M46" s="38">
         <f t="shared" si="2"/>
-        <v>690.3</v>
+        <v>6970.5</v>
       </c>
       <c r="N46" s="38">
         <f t="shared" si="2"/>
-        <v>767</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7745</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B47" s="39" t="s">
         <v>21</v>
       </c>
       <c r="C47" s="39"/>
       <c r="D47" s="38">
         <f t="shared" ref="D47:N47" si="3">SUM(D45:D46)</f>
-        <v>29.94</v>
+        <v>8100</v>
       </c>
       <c r="E47" s="38">
         <f t="shared" si="3"/>
-        <v>106.64</v>
+        <v>8874.5</v>
       </c>
       <c r="F47" s="38">
         <f t="shared" si="3"/>
-        <v>183.34</v>
+        <v>9649</v>
       </c>
       <c r="G47" s="38">
         <f t="shared" si="3"/>
-        <v>260.04000000000002</v>
+        <v>10423.5</v>
       </c>
       <c r="H47" s="38">
         <f t="shared" si="3"/>
-        <v>336.74</v>
+        <v>11198</v>
       </c>
       <c r="I47" s="38">
         <f t="shared" si="3"/>
-        <v>413.44</v>
+        <v>11972.5</v>
       </c>
       <c r="J47" s="38">
         <f t="shared" si="3"/>
-        <v>490.14</v>
+        <v>12747</v>
       </c>
       <c r="K47" s="38">
         <f t="shared" si="3"/>
-        <v>566.84</v>
+        <v>13521.5</v>
       </c>
       <c r="L47" s="38">
         <f t="shared" si="3"/>
-        <v>643.54000000000008</v>
+        <v>14296</v>
       </c>
       <c r="M47" s="38">
         <f t="shared" si="3"/>
-        <v>720.24</v>
+        <v>15070.5</v>
       </c>
       <c r="N47" s="38">
         <f t="shared" si="3"/>
-        <v>796.94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15845</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="36" t="s">
         <v>20</v>
       </c>
@@ -4222,93 +4225,93 @@
       </c>
       <c r="E48" s="52">
         <f t="shared" si="4"/>
-        <v>149.94999999999999</v>
+        <v>1749.5</v>
       </c>
       <c r="F48" s="52">
         <f t="shared" si="4"/>
-        <v>299.89999999999998</v>
+        <v>3499</v>
       </c>
       <c r="G48" s="52">
         <f t="shared" si="4"/>
-        <v>449.84999999999997</v>
+        <v>5248.5</v>
       </c>
       <c r="H48" s="52">
         <f t="shared" si="4"/>
-        <v>599.79999999999995</v>
+        <v>6998</v>
       </c>
       <c r="I48" s="52">
         <f t="shared" si="4"/>
-        <v>749.75</v>
+        <v>8747.5</v>
       </c>
       <c r="J48" s="52">
         <f t="shared" si="4"/>
-        <v>899.69999999999993</v>
+        <v>10497</v>
       </c>
       <c r="K48" s="52">
         <f t="shared" si="4"/>
-        <v>1049.6499999999999</v>
+        <v>12246.5</v>
       </c>
       <c r="L48" s="52">
         <f t="shared" si="4"/>
-        <v>1199.5999999999999</v>
+        <v>13996</v>
       </c>
       <c r="M48" s="52">
         <f t="shared" si="4"/>
-        <v>1349.55</v>
+        <v>15745.5</v>
       </c>
       <c r="N48" s="52">
         <f t="shared" si="4"/>
-        <v>1499.5</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17495</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="39" t="s">
         <v>22</v>
       </c>
       <c r="C49" s="39"/>
       <c r="D49" s="53">
         <f t="shared" ref="D49:N49" si="5">D48-D47</f>
-        <v>-29.94</v>
+        <v>-8100</v>
       </c>
       <c r="E49" s="53">
         <f t="shared" si="5"/>
-        <v>43.309999999999988</v>
+        <v>-7125</v>
       </c>
       <c r="F49" s="53">
         <f t="shared" si="5"/>
-        <v>116.55999999999997</v>
+        <v>-6150</v>
       </c>
       <c r="G49" s="53">
         <f t="shared" si="5"/>
-        <v>189.80999999999995</v>
+        <v>-5175</v>
       </c>
       <c r="H49" s="53">
         <f t="shared" si="5"/>
-        <v>263.05999999999995</v>
+        <v>-4200</v>
       </c>
       <c r="I49" s="53">
         <f t="shared" si="5"/>
-        <v>336.31</v>
+        <v>-3225</v>
       </c>
       <c r="J49" s="53">
         <f t="shared" si="5"/>
-        <v>409.55999999999995</v>
+        <v>-2250</v>
       </c>
       <c r="K49" s="53">
         <f t="shared" si="5"/>
-        <v>482.80999999999983</v>
+        <v>-1275</v>
       </c>
       <c r="L49" s="53">
         <f t="shared" si="5"/>
-        <v>556.05999999999983</v>
+        <v>-300</v>
       </c>
       <c r="M49" s="53">
         <f t="shared" si="5"/>
-        <v>629.30999999999995</v>
+        <v>675</v>
       </c>
       <c r="N49" s="53">
         <f t="shared" si="5"/>
-        <v>702.56</v>
+        <v>1650</v>
       </c>
     </row>
   </sheetData>
@@ -4325,12 +4328,12 @@
   </scenarios>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter an amount between -10,000,000 and 10,000,000." sqref="F42 F23:F24 F52:F65544 G4 G2 G36 F35 G38 F37 D46:N46 H53:H65544 J41:J42 G24 F8:F9 G8:G17" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter an amount between -10,000,000 and 10,000,000." sqref="F42 F23:F24 F52:F65544 G4 G2 G36 F35 G38 F37 D46:N46 H53:H65544 J41:J42 G24 F8:F9 G8:G17">
       <formula1>-10000000</formula1>
       <formula2>10000000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter an amount between -10,000,000 and 10,000,000." sqref="F41 G19:G23 G5:G7 H4 H2 F18:F22 G53:G65544 G35 F36 G37" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter an amount between (10,000,000) and 10,000,000." sqref="F5 F10:F17 F25:F34 F6" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter an amount between -10,000,000 and 10,000,000." sqref="F41 G19:G23 G5:G7 H4 H2 F18:F22 G53:G65544 G35 F36 G37"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter an amount between (10,000,000) and 10,000,000." sqref="F5 F10:F17 F25:F34 F6">
       <formula1>-10000000</formula1>
       <formula2>10000000</formula2>
     </dataValidation>
@@ -4343,14 +4346,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4358,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4366,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4374,7 +4377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
